--- a/donnees/evaluation_t3_2022.xlsx
+++ b/donnees/evaluation_t3_2022.xlsx
@@ -39783,7 +39783,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A26"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
